--- a/form-backend/Admin Log/Course_admin_activity_log.xlsx
+++ b/form-backend/Admin Log/Course_admin_activity_log.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="16"/>
@@ -409,7 +409,7 @@
     <col min="5" max="5" customWidth="1" width="24"/>
     <col min="6" max="6" customWidth="1" width="14"/>
     <col min="7" max="7" customWidth="1" width="14"/>
-    <col min="8" max="8" customWidth="1" width="1017"/>
+    <col min="8" max="8" customWidth="1" width="1019"/>
     <col min="9" max="9" customWidth="1" width="17"/>
     <col min="10" max="10" customWidth="1" width="19"/>
   </cols>
@@ -451,7 +451,7 @@
         <v>CollegeAdminName</v>
       </c>
       <c r="B2" t="str">
-        <v>Admin</v>
+        <v>VIT</v>
       </c>
       <c r="C2" t="str">
         <v>kiradrahul30@gmail.com</v>
@@ -463,25 +463,25 @@
         <v>rahulkirad143@gmail.com</v>
       </c>
       <c r="F2" t="str">
-        <v>2025-03-03</v>
+        <v>2025-03-20</v>
       </c>
       <c r="G2" t="str">
-        <v>11:48 AM</v>
+        <v>8:23 PM</v>
       </c>
       <c r="H2" t="str" xml:space="preserve">
         <v xml:space="preserve">
 Calculus:
-1. How do the concepts of divergence and curl help to describe the behavior of vector fields in physics, such as fluid flow or magnetic fields?
-2. How can integration be applied to calculate the total distance traveled by an object moving at variable speed?
+1. How can derivatives be used to model the rate of change of a company's revenue over time?
+2. What challenges arise when applying integration to irregularly shaped regions or discontinuous functions?
 Chemistry I:
-1. How does the second law of thermodynamics govern the spontaneity of chemical reactions?
-2. How does the periodic table provide a framework for predicting the chemical behavior of elements based on their group and period?
+1. What challenges might arise in performing stoichiometric calculations when dealing with impurities or non-ideal reactants?
+2. What challenges arise in determining the reaction mechanism for complex, multi-step reactions with intermediate species?
 Comp.Programing and Utilization:
-1. What are the challenges in debugging distributed systems or multi-threaded applications?
-2. How can understanding algorithmic complexity help in optimizing code performance?
+1. How does version control, such as Git, help in tracking changes, collaborating with teams, and maintaining code integrity?
+2. What are the potential risks of over-optimizing code, such as making it harder to maintain or debug?
 Economics:
-1. How do taxes and government spending influence economic welfare and the distribution of wealth?
-2. How does the central bank's control of money supply influence inflation and interest rates in an economy?</v>
+1. What challenges arise in real-world situations where players do not have complete information or the ability to make rational decisions?
+2. What challenges arise in creating tax policies that are both efficient and equitable for all sectors of the economy?</v>
       </c>
       <c r="I2" t="str">
         <v>No</v>
@@ -495,7 +495,7 @@
         <v>CollegeAdminName</v>
       </c>
       <c r="B3" t="str">
-        <v>Admin</v>
+        <v>VIT</v>
       </c>
       <c r="C3" t="str">
         <v>kiradrahul30@gmail.com</v>
@@ -507,212 +507,36 @@
         <v>rahulkirad1673@gmail.com</v>
       </c>
       <c r="F3" t="str">
-        <v>2025-03-03</v>
+        <v>2025-03-20</v>
       </c>
       <c r="G3" t="str">
-        <v>11:48 AM</v>
+        <v>8:23 PM</v>
       </c>
       <c r="H3" t="str" xml:space="preserve">
         <v xml:space="preserve">
 Calculus:
-1. How do the concepts of divergence and curl help to describe the behavior of vector fields in physics, such as fluid flow or magnetic fields?
-2. How can integration be applied to calculate the total distance traveled by an object moving at variable speed?
+1. How can derivatives be used to model the rate of change of a company's revenue over time?
+2. What challenges arise when applying integration to irregularly shaped regions or discontinuous functions?
 Chemistry I:
-1. How does the second law of thermodynamics govern the spontaneity of chemical reactions?
-2. How does the periodic table provide a framework for predicting the chemical behavior of elements based on their group and period?
+1. What challenges might arise in performing stoichiometric calculations when dealing with impurities or non-ideal reactants?
+2. What challenges arise in determining the reaction mechanism for complex, multi-step reactions with intermediate species?
 Comp.Programing and Utilization:
-1. What are the challenges in debugging distributed systems or multi-threaded applications?
-2. How can understanding algorithmic complexity help in optimizing code performance?
+1. How does version control, such as Git, help in tracking changes, collaborating with teams, and maintaining code integrity?
+2. What are the potential risks of over-optimizing code, such as making it harder to maintain or debug?
 Economics:
-1. How do taxes and government spending influence economic welfare and the distribution of wealth?
-2. How does the central bank's control of money supply influence inflation and interest rates in an economy?</v>
+1. What challenges arise in real-world situations where players do not have complete information or the ability to make rational decisions?
+2. What challenges arise in creating tax policies that are both efficient and equitable for all sectors of the economy?</v>
       </c>
       <c r="I3" t="str">
         <v>No</v>
       </c>
       <c r="J3" t="str">
-        <v>No Response</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>CollegeAdminName</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Admin</v>
-      </c>
-      <c r="C4" t="str">
-        <v>kiradrahul30@gmail.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v xml:space="preserve">Rahul </v>
-      </c>
-      <c r="E4" t="str">
-        <v>rahulkirad143@gmail.com</v>
-      </c>
-      <c r="F4" t="str">
-        <v>2025-03-07</v>
-      </c>
-      <c r="G4" t="str">
-        <v>12:04 PM</v>
-      </c>
-      <c r="H4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Calculus:
-1. What are the limitations of the Fundamental Theorem of Calculus when dealing with non-continuous functions?
-2. How can Stokes' Theorem be used to relate the surface integral of a vector field to its boundary curve, such as in electromagnetic theory?
-Chemistry I:
-1. What are the limitations of the ideal gas law when dealing with gases at high pressures or low temperatures?
-2. What challenges might arise in performing stoichiometric calculations when dealing with impurities or non-ideal reactants?
-Comp.Programing and Utilization:
-1. How can choosing the right data structure improve the efficiency of a program in terms of time and space?
-2. How does cloud computing enable scalability and flexibility in running applications or processing large amounts of data?
-Economics:
-1. How can economic development policies like investment in education and infrastructure foster long-term growth?
-2. What difficulties arise when trying to balance public sector spending with national debt concerns?</v>
-      </c>
-      <c r="I4" t="str">
-        <v>No</v>
-      </c>
-      <c r="J4" t="str">
-        <v>No Response</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>CollegeAdminName</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Admin</v>
-      </c>
-      <c r="C5" t="str">
-        <v>kiradrahul30@gmail.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Rahul kirad</v>
-      </c>
-      <c r="E5" t="str">
-        <v>rahulkirad1673@gmail.com</v>
-      </c>
-      <c r="F5" t="str">
-        <v>2025-03-07</v>
-      </c>
-      <c r="G5" t="str">
-        <v>12:04 PM</v>
-      </c>
-      <c r="H5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Calculus:
-1. What are the limitations of the Fundamental Theorem of Calculus when dealing with non-continuous functions?
-2. How can Stokes' Theorem be used to relate the surface integral of a vector field to its boundary curve, such as in electromagnetic theory?
-Chemistry I:
-1. What are the limitations of the ideal gas law when dealing with gases at high pressures or low temperatures?
-2. What challenges might arise in performing stoichiometric calculations when dealing with impurities or non-ideal reactants?
-Comp.Programing and Utilization:
-1. How can choosing the right data structure improve the efficiency of a program in terms of time and space?
-2. How does cloud computing enable scalability and flexibility in running applications or processing large amounts of data?
-Economics:
-1. How can economic development policies like investment in education and infrastructure foster long-term growth?
-2. What difficulties arise when trying to balance public sector spending with national debt concerns?</v>
-      </c>
-      <c r="I5" t="str">
-        <v>No</v>
-      </c>
-      <c r="J5" t="str">
-        <v>No Response</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>CollegeAdminName</v>
-      </c>
-      <c r="B6" t="str">
-        <v>VIT</v>
-      </c>
-      <c r="C6" t="str">
-        <v>kiradrahul30@gmail.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v xml:space="preserve">Rahul </v>
-      </c>
-      <c r="E6" t="str">
-        <v>rahulkirad143@gmail.com</v>
-      </c>
-      <c r="F6" t="str">
-        <v>2025-03-18</v>
-      </c>
-      <c r="G6" t="str">
-        <v>3:34 PM</v>
-      </c>
-      <c r="H6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Calculus:
-1. How can the chain rule be applied to solve complex problems involving nested functions in physics?
-2. How can Stokes' Theorem be used to relate the surface integral of a vector field to its boundary curve, such as in electromagnetic theory?
-Chemistry I:
-1. How does the second law of thermodynamics govern the spontaneity of chemical reactions?
-2. How does the structure of organic molecules influence their reactivity and properties in chemical reactions?
-Comp.Programing and Utilization:
-1. What difficulties can arise when trying to maintain and scale object-oriented systems as they grow in complexity?
-2. How do platform-specific frameworks, such as React Native or Swift, help developers create high-performance mobile applications?
-Economics:
-1. How can economic development policies like investment in education and infrastructure foster long-term growth?
-2. How does the efficient market hypothesis explain price movements in financial markets and asset valuation?</v>
-      </c>
-      <c r="I6" t="str">
-        <v>No</v>
-      </c>
-      <c r="J6" t="str">
-        <v>No Response</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>CollegeAdminName</v>
-      </c>
-      <c r="B7" t="str">
-        <v>VIT</v>
-      </c>
-      <c r="C7" t="str">
-        <v>kiradrahul30@gmail.com</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Rahul kirad</v>
-      </c>
-      <c r="E7" t="str">
-        <v>rahulkirad1673@gmail.com</v>
-      </c>
-      <c r="F7" t="str">
-        <v>2025-03-18</v>
-      </c>
-      <c r="G7" t="str">
-        <v>3:34 PM</v>
-      </c>
-      <c r="H7" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-Calculus:
-1. How can the chain rule be applied to solve complex problems involving nested functions in physics?
-2. How can Stokes' Theorem be used to relate the surface integral of a vector field to its boundary curve, such as in electromagnetic theory?
-Chemistry I:
-1. How does the second law of thermodynamics govern the spontaneity of chemical reactions?
-2. How does the structure of organic molecules influence their reactivity and properties in chemical reactions?
-Comp.Programing and Utilization:
-1. What difficulties can arise when trying to maintain and scale object-oriented systems as they grow in complexity?
-2. How do platform-specific frameworks, such as React Native or Swift, help developers create high-performance mobile applications?
-Economics:
-1. How can economic development policies like investment in education and infrastructure foster long-term growth?
-2. How does the efficient market hypothesis explain price movements in financial markets and asset valuation?</v>
-      </c>
-      <c r="I7" t="str">
-        <v>No</v>
-      </c>
-      <c r="J7" t="str">
         <v>No Response</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
   </ignoredErrors>
 </worksheet>
 </file>